--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,73 +66,73 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-1.6700127099477178</t>
+    <t>5.35 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>-2.8499999999999996</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4913961945540344</t>
-  </si>
-  <si>
-    <t>0.5585560878687771</t>
-  </si>
-  <si>
-    <t>0.4229802138273081</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>0.6955939072173343</t>
-  </si>
-  <si>
-    <t>0.8882090831603455</t>
-  </si>
-  <si>
-    <t>0.8899661189869174</t>
-  </si>
-  <si>
-    <t>0.49103049106857255</t>
-  </si>
-  <si>
-    <t>-y_1</t>
-  </si>
-  <si>
-    <t>-100.37656758184467</t>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>4.699999999999999</t>
+  </si>
+  <si>
+    <t>3.9000000000000004</t>
+  </si>
+  <si>
+    <t>2.1499999999999932 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-4.149999999999993</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>104.95 - y_1</t>
+  </si>
+  <si>
+    <t>-104.95</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.41356181709168294</t>
-  </si>
-  <si>
-    <t>0.9614819701715891</t>
-  </si>
-  <si>
-    <t>0.41844715052647696</t>
-  </si>
-  <si>
-    <t>-y_2</t>
-  </si>
-  <si>
-    <t>-0.5122616766064048</t>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>2.8000000000000003</t>
+  </si>
+  <si>
+    <t>-3.5999999999999996 - y_2</t>
+  </si>
+  <si>
+    <t>-3.5999999999999996</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.07636940678826719</t>
-  </si>
-  <si>
-    <t>0.7654317584954957</t>
-  </si>
-  <si>
-    <t>0.03843517276709817</t>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>7.9</t>
   </si>
   <si>
     <t>x_1</t>
@@ -147,40 +147,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.01715930759299</t>
-  </si>
-  <si>
-    <t>16.611275692327354</t>
-  </si>
-  <si>
-    <t>100.37656758184467</t>
-  </si>
-  <si>
-    <t>0.5122616766064048</t>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>104.95</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.9221656225376487</t>
-  </si>
-  <si>
-    <t>-1.320443481818044</t>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>-0.78</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.227146056750637</t>
-  </si>
-  <si>
-    <t>1.669898356960752</t>
-  </si>
-  <si>
-    <t>-0.09707411769718799</t>
-  </si>
-  <si>
-    <t>0.43402172737735545</t>
+    <t>6.199999999999998</t>
+  </si>
+  <si>
+    <t>14.600000000000001</t>
+  </si>
+  <si>
+    <t>4.700000000000001</t>
+  </si>
+  <si>
+    <t>4.8</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,73 +66,73 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>5.35 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-2.8499999999999996</t>
+    <t>1.7500000000000169 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>0.7499999999999831</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>4.699999999999999</t>
-  </si>
-  <si>
-    <t>3.9000000000000004</t>
-  </si>
-  <si>
-    <t>2.1499999999999932 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-4.149999999999993</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>104.95 - y_1</t>
-  </si>
-  <si>
-    <t>-104.95</t>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>6.549999999999994 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-8.549999999999994</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>104.6 - y_1</t>
+  </si>
+  <si>
+    <t>-104.6</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>2.8000000000000003</t>
-  </si>
-  <si>
-    <t>-3.5999999999999996 - y_2</t>
-  </si>
-  <si>
-    <t>-3.5999999999999996</t>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>-2.05 - y_2</t>
+  </si>
+  <si>
+    <t>-2.05</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>5.300000000000001</t>
-  </si>
-  <si>
-    <t>7.9</t>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>8.100000000000001</t>
   </si>
   <si>
     <t>x_1</t>
@@ -147,40 +147,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>53.35</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>104.95</t>
-  </si>
-  <si>
-    <t>3.5999999999999996</t>
+    <t>52.150000000000006</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>104.6</t>
+  </si>
+  <si>
+    <t>2.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>4.14</t>
-  </si>
-  <si>
-    <t>-0.78</t>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>-0.050000000000000044</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>6.199999999999998</t>
-  </si>
-  <si>
-    <t>14.600000000000001</t>
-  </si>
-  <si>
-    <t>4.700000000000001</t>
-  </si>
-  <si>
-    <t>4.8</t>
+    <t>-0.9000000000000004</t>
+  </si>
+  <si>
+    <t>28.700000000000003</t>
+  </si>
+  <si>
+    <t>-3.4</t>
+  </si>
+  <si>
+    <t>-1.9000000000000004</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,121 +66,118 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>1.7500000000000169 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>0.7499999999999831</t>
+    <t>1.1000000000000056 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>1.3999999999999944</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.77</t>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.5499999999999927 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-4.549999999999993</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>102.2 - y_1</t>
+  </si>
+  <si>
+    <t>-102.2</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>-0.2 - y_2</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
   <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>6.549999999999994 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-8.549999999999994</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>104.6 - y_1</t>
-  </si>
-  <si>
-    <t>-104.6</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.6</t>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>x_1</t>
+  </si>
+  <si>
+    <t>x_2</t>
+  </si>
+  <si>
+    <t>y_1</t>
+  </si>
+  <si>
+    <t>y_2</t>
+  </si>
+  <si>
+    <t>51.550000000000004</t>
+  </si>
+  <si>
+    <t>18.099999999999998</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>vec_bf</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>0.31000000000000005</t>
+  </si>
+  <si>
+    <t>vec_BF</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>-2.9000000000000004</t>
   </si>
   <si>
     <t>8.0</t>
-  </si>
-  <si>
-    <t>-2.05 - y_2</t>
-  </si>
-  <si>
-    <t>-2.05</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>8.100000000000001</t>
-  </si>
-  <si>
-    <t>x_1</t>
-  </si>
-  <si>
-    <t>x_2</t>
-  </si>
-  <si>
-    <t>y_1</t>
-  </si>
-  <si>
-    <t>y_2</t>
-  </si>
-  <si>
-    <t>52.150000000000006</t>
-  </si>
-  <si>
-    <t>20.25</t>
-  </si>
-  <si>
-    <t>104.6</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>vec_bf</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>-0.050000000000000044</t>
-  </si>
-  <si>
-    <t>vec_BF</t>
-  </si>
-  <si>
-    <t>-0.9000000000000004</t>
-  </si>
-  <si>
-    <t>28.700000000000003</t>
-  </si>
-  <si>
-    <t>-3.4</t>
-  </si>
-  <si>
-    <t>-1.9000000000000004</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -791,17 +788,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +816,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
